--- a/final.xlsx
+++ b/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programování\mat-klokan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87ECBCE5-CC20-4AFF-B377-D9E5C4737908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1A390-2568-49B4-8AF3-A97CEA6E4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A38ED172-6F95-467C-B507-0CF5AD5AA582}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nejlepší řešitelé</t>
   </si>
@@ -59,17 +59,14 @@
     <t>Celková statistika</t>
   </si>
   <si>
-    <t>Celkem účastníků v kategorii</t>
-  </si>
-  <si>
-    <t>Celkem účastníků:</t>
+    <t>Celkem :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +82,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -137,20 +132,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3806E3F1-C804-4231-BE54-E46338EFC304}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,22 +618,25 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,27 +655,79 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="3" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="11"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="8"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
